--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-message-category-lov.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-message-category-lov.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="159">
   <si>
     <r>
       <rPr>
@@ -2131,12 +2131,6 @@
   </si>
   <si>
     <t>部署实例状态通知</t>
-  </si>
-  <si>
-    <t>RDUCM_MEMBER</t>
-  </si>
-  <si>
-    <t>代码库权限通知</t>
   </si>
   <si>
     <t>值集查询视图头表</t>
@@ -2222,12 +2216,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2256,12 +2250,6 @@
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2303,10 +2291,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2317,8 +2305,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2340,73 +2411,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2417,30 +2421,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2529,7 +2517,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2541,7 +2565,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2553,37 +2655,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2595,121 +2697,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2816,17 +2804,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2834,8 +2827,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2855,35 +2863,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2899,16 +2878,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2916,205 +2904,204 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3127,7 +3114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3533,7 +3520,7 @@
     <col min="1" max="1" width="15.5833333333333" style="6" customWidth="1"/>
     <col min="2" max="2" width="10.3333333333333" style="7" customWidth="1"/>
     <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="8" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
     <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
     <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
     <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
@@ -3547,79 +3534,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="8"/>
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="12"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="9"/>
+      <c r="A5" s="8"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="26" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -3627,56 +3614,56 @@
       </c>
     </row>
     <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="26" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="26" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="28" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="31" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3686,64 +3673,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="13"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="35" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3766,10 +3753,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F16" sqref="$A16:$XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
+      <selection activeCell="J24" sqref="$A24:$XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -4521,160 +4508,118 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="5:20">
-      <c r="E24" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" t="str">
-        <f>E9</f>
-        <v>hpfm_lov-9</v>
-      </c>
-      <c r="G24" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" s="5" t="s">
+    <row r="24" spans="8:8">
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
         <v>133</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="D25" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="J24" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="M24" t="s">
-        <v>77</v>
-      </c>
-      <c r="N24" t="s">
-        <v>77</v>
-      </c>
-      <c r="P24">
-        <v>10</v>
-      </c>
-      <c r="Q24" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="T24">
-        <v>1</v>
+      <c r="E25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" t="s">
+        <v>137</v>
+      </c>
+      <c r="H25" t="s">
+        <v>138</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K25" t="s">
+        <v>68</v>
+      </c>
+      <c r="L25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M25" t="s">
+        <v>141</v>
+      </c>
+      <c r="N25" t="s">
+        <v>142</v>
+      </c>
+      <c r="O25" t="s">
+        <v>143</v>
+      </c>
+      <c r="P25" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>145</v>
+      </c>
+      <c r="R25" t="s">
+        <v>146</v>
+      </c>
+      <c r="S25" t="s">
+        <v>147</v>
+      </c>
+      <c r="T25" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="25" spans="8:8">
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C26" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="C27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G27" t="s">
+        <v>152</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="H26" t="s">
-        <v>140</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K26" t="s">
-        <v>68</v>
-      </c>
-      <c r="L26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M26" t="s">
-        <v>143</v>
-      </c>
-      <c r="N26" t="s">
-        <v>144</v>
-      </c>
-      <c r="O26" t="s">
-        <v>145</v>
-      </c>
-      <c r="P26" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>147</v>
-      </c>
-      <c r="R26" t="s">
-        <v>148</v>
-      </c>
-      <c r="S26" t="s">
-        <v>149</v>
-      </c>
-      <c r="T26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F28" s="3" t="s">
+      <c r="I27" t="s">
         <v>153</v>
       </c>
-      <c r="G28" t="s">
+      <c r="J27" t="s">
         <v>154</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="K27" t="s">
+        <v>91</v>
+      </c>
+      <c r="L27" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J28" t="s">
+      <c r="M27" t="s">
         <v>156</v>
       </c>
-      <c r="K28" t="s">
-        <v>91</v>
-      </c>
-      <c r="L28" s="3" t="s">
+      <c r="N27" t="s">
         <v>157</v>
       </c>
-      <c r="M28" t="s">
+      <c r="O27" t="s">
         <v>158</v>
       </c>
-      <c r="N28" t="s">
-        <v>159</v>
-      </c>
-      <c r="O28" t="s">
-        <v>160</v>
-      </c>
-      <c r="P28" t="s">
+      <c r="P27" t="s">
         <v>71</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-message-category-lov.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-message-category-lov.xlsx
@@ -2094,7 +2094,7 @@
     <t>部署资源通知</t>
   </si>
   <si>
-    <t>部署实例、网络、域名等资源失败通知</t>
+    <t>部署应用、网络、域名等资源失败通知</t>
   </si>
   <si>
     <t>10</t>
@@ -2118,7 +2118,7 @@
     <t>资源删除验证</t>
   </si>
   <si>
-    <t>涉及到实例或资源删除这一系列敏感操作，向用户发送确认信息</t>
+    <t>涉及到应用或资源删除这一系列敏感操作，向用户发送确认信息</t>
   </si>
   <si>
     <t>12</t>
@@ -2130,7 +2130,7 @@
     <t>应用部署通知</t>
   </si>
   <si>
-    <t>部署实例状态通知</t>
+    <t>部署应用状态通知</t>
   </si>
   <si>
     <t>值集查询视图头表</t>
@@ -2217,8 +2217,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
@@ -2290,8 +2290,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2299,13 +2328,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2313,14 +2341,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2329,7 +2389,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2344,30 +2404,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2381,54 +2428,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2517,31 +2517,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2553,13 +2547,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2583,7 +2577,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2601,7 +2643,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2613,19 +2679,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2643,61 +2697,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2804,11 +2804,80 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2832,220 +2901,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3756,7 +3756,7 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
-      <selection activeCell="J24" sqref="$A24:$XFD24"/>
+      <selection activeCell="K23" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-message-category-lov.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/devops-message-category-lov.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="161">
   <si>
     <r>
       <rPr>
@@ -2131,6 +2131,12 @@
   </si>
   <si>
     <t>部署应用状态通知</t>
+  </si>
+  <si>
+    <t>CD-PIPELINE-NOTICE</t>
+  </si>
+  <si>
+    <t>持续集成通知</t>
   </si>
   <si>
     <t>值集查询视图头表</t>
@@ -2216,10 +2222,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2298,7 +2304,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2312,8 +2339,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2328,29 +2356,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2372,19 +2378,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2405,10 +2403,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2422,13 +2435,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2517,7 +2523,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2529,73 +2679,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2607,97 +2697,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2819,26 +2825,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2852,17 +2849,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2882,13 +2873,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2901,16 +2896,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2919,37 +2925,37 @@
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2958,94 +2964,94 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3056,13 +3062,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3515,21 +3521,21 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="7" customWidth="1"/>
-    <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
-    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
-    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
+    <col min="1" max="1" width="15.5851851851852" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
+    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
+    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
+    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
-    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
-    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
+    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
+    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
     <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3544,7 +3550,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="5:5">
+    <row r="2" ht="18" spans="5:5">
       <c r="E2" s="11"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
@@ -3558,7 +3564,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="3:7">
+    <row r="4" ht="18" spans="3:7">
       <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
@@ -3579,7 +3585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
+    <row r="7" ht="18" spans="3:5">
       <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
@@ -3599,7 +3605,7 @@
       </c>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" ht="52.2" spans="3:6">
+    <row r="9" ht="51.75" spans="3:6">
       <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
@@ -3613,7 +3619,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
+    <row r="10" ht="51.75" spans="3:5">
       <c r="C10" s="27" t="s">
         <v>17</v>
       </c>
@@ -3624,7 +3630,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
+    <row r="11" ht="69" spans="3:5">
       <c r="C11" s="21" t="s">
         <v>20</v>
       </c>
@@ -3656,7 +3662,7 @@
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
     </row>
-    <row r="15" ht="34.8" spans="3:5">
+    <row r="15" ht="34.5" spans="3:5">
       <c r="C15" s="29" t="s">
         <v>26</v>
       </c>
@@ -3679,7 +3685,7 @@
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" ht="18" spans="3:4">
       <c r="C20" s="33" t="s">
         <v>31</v>
       </c>
@@ -3687,7 +3693,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" ht="18" spans="3:4">
       <c r="C21" s="33" t="s">
         <v>33</v>
       </c>
@@ -3695,19 +3701,19 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" ht="18" spans="3:4">
       <c r="C22" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
+    <row r="23" ht="18" spans="3:4">
       <c r="C23" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3729,7 +3735,7 @@
       </c>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" ht="52.2" spans="3:3">
+    <row r="27" ht="51.75" spans="3:3">
       <c r="C27" s="35" t="s">
         <v>43</v>
       </c>
@@ -3753,27 +3759,27 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
-      <selection activeCell="K23" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="28.8333333333333" customWidth="1"/>
+    <col min="5" max="5" width="28.837037037037" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="44.4166666666667" customWidth="1"/>
-    <col min="8" max="8" width="38.0833333333333" customWidth="1"/>
-    <col min="9" max="9" width="22.9166666666667" customWidth="1"/>
-    <col min="10" max="10" width="31.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="44.4148148148148" customWidth="1"/>
+    <col min="8" max="8" width="38.0814814814815" customWidth="1"/>
+    <col min="9" max="9" width="22.9185185185185" customWidth="1"/>
+    <col min="10" max="10" width="31.4148148148148" customWidth="1"/>
     <col min="11" max="11" width="34.3333333333333" customWidth="1"/>
     <col min="12" max="12" width="43" customWidth="1"/>
-    <col min="13" max="14" width="25.8333333333333" customWidth="1"/>
-    <col min="15" max="15" width="41.0833333333333" customWidth="1"/>
-    <col min="16" max="16" width="15.5" customWidth="1"/>
+    <col min="13" max="14" width="25.837037037037" customWidth="1"/>
+    <col min="15" max="15" width="41.0814814814815" customWidth="1"/>
+    <col min="16" max="16" width="15.5037037037037" customWidth="1"/>
     <col min="17" max="17" width="26" customWidth="1"/>
-    <col min="20" max="20" width="14.9166666666667" customWidth="1"/>
+    <col min="20" max="20" width="14.9185185185185" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4508,118 +4514,165 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="8:8">
-      <c r="H24" s="5"/>
+    <row r="24" spans="5:20">
+      <c r="E24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" t="str">
+        <f>E9</f>
+        <v>hpfm_lov-9</v>
+      </c>
+      <c r="G24" t="str">
+        <f>F9</f>
+        <v>HMSG.TEMP_SERVER.SUBCATEGORY</v>
+      </c>
+      <c r="H24" t="s">
+        <v>133</v>
+      </c>
+      <c r="I24" t="s">
+        <v>134</v>
+      </c>
+      <c r="J24" t="s">
+        <v>134</v>
+      </c>
+      <c r="K24" t="s">
+        <v>134</v>
+      </c>
+      <c r="L24" t="s">
+        <v>134</v>
+      </c>
+      <c r="M24" t="s">
+        <v>77</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>15</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>97</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
+    <row r="25" spans="4:10">
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>51</v>
       </c>
-      <c r="C25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="C26" t="s">
         <v>135</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="D26" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G25" t="s">
+      <c r="E26" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H25" t="s">
+      <c r="F26" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="G26" t="s">
         <v>139</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="H26" t="s">
         <v>140</v>
       </c>
-      <c r="K25" t="s">
+      <c r="I26" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K26" t="s">
         <v>68</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L26" t="s">
         <v>69</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M26" t="s">
+        <v>143</v>
+      </c>
+      <c r="N26" t="s">
+        <v>144</v>
+      </c>
+      <c r="O26" t="s">
+        <v>145</v>
+      </c>
+      <c r="P26" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>147</v>
+      </c>
+      <c r="R26" t="s">
+        <v>148</v>
+      </c>
+      <c r="S26" t="s">
+        <v>149</v>
+      </c>
+      <c r="T26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G28" t="s">
+        <v>154</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="N25" t="s">
-        <v>142</v>
-      </c>
-      <c r="O25" t="s">
-        <v>143</v>
-      </c>
-      <c r="P25" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>145</v>
-      </c>
-      <c r="R25" t="s">
-        <v>146</v>
-      </c>
-      <c r="S25" t="s">
-        <v>147</v>
-      </c>
-      <c r="T25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G27" t="s">
-        <v>152</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="I27" t="s">
-        <v>153</v>
-      </c>
-      <c r="J27" t="s">
-        <v>154</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="I28" t="s">
+        <v>155</v>
+      </c>
+      <c r="J28" t="s">
+        <v>156</v>
+      </c>
+      <c r="K28" t="s">
         <v>91</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="M27" t="s">
-        <v>156</v>
-      </c>
-      <c r="N27" t="s">
+      <c r="L28" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="O27" t="s">
+      <c r="M28" t="s">
         <v>158</v>
       </c>
-      <c r="P27" t="s">
+      <c r="N28" t="s">
+        <v>159</v>
+      </c>
+      <c r="O28" t="s">
+        <v>160</v>
+      </c>
+      <c r="P28" t="s">
         <v>71</v>
       </c>
     </row>
